--- a/Code/Results/Cases/Case_9_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_51/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.02382979114275</v>
+        <v>12.48032735450678</v>
       </c>
       <c r="C2">
-        <v>8.004323117880121</v>
+        <v>8.495763012148858</v>
       </c>
       <c r="D2">
-        <v>4.857025851245424</v>
+        <v>4.900912270978978</v>
       </c>
       <c r="E2">
-        <v>15.08471015222568</v>
+        <v>15.18084746845021</v>
       </c>
       <c r="F2">
-        <v>24.45284956881569</v>
+        <v>23.1485831664503</v>
       </c>
       <c r="G2">
-        <v>33.89399402956626</v>
+        <v>31.16330054899472</v>
       </c>
       <c r="H2">
-        <v>1.631004359300907</v>
+        <v>1.591895646546587</v>
       </c>
       <c r="I2">
-        <v>2.883430162545515</v>
+        <v>2.760669654830132</v>
       </c>
       <c r="J2">
-        <v>11.39509983110426</v>
+        <v>11.22016298631244</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>14.09606008190666</v>
       </c>
       <c r="M2">
-        <v>11.60699769043296</v>
+        <v>11.12789880266452</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.71013719638128</v>
+        <v>11.54938806694154</v>
       </c>
       <c r="P2">
-        <v>13.71535159794359</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.68767421554688</v>
+      </c>
+      <c r="R2">
+        <v>13.36292381192313</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.15097508960616</v>
+        <v>11.69306116995529</v>
       </c>
       <c r="C3">
-        <v>7.572070971063607</v>
+        <v>7.943359359584375</v>
       </c>
       <c r="D3">
-        <v>4.775791764175894</v>
+        <v>4.789254589059812</v>
       </c>
       <c r="E3">
-        <v>14.17634532923102</v>
+        <v>14.28625815638081</v>
       </c>
       <c r="F3">
-        <v>23.7457354328252</v>
+        <v>22.56664791753237</v>
       </c>
       <c r="G3">
-        <v>32.82401416795734</v>
+        <v>30.34984945578613</v>
       </c>
       <c r="H3">
-        <v>1.854871996795155</v>
+        <v>1.804535477075571</v>
       </c>
       <c r="I3">
-        <v>3.069293467936494</v>
+        <v>2.920617758762285</v>
       </c>
       <c r="J3">
-        <v>11.27921873853713</v>
+        <v>11.10947520436701</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>14.14209402773018</v>
       </c>
       <c r="M3">
-        <v>10.89889211452007</v>
+        <v>10.93288288458442</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.88429806857116</v>
+        <v>10.86152304488479</v>
       </c>
       <c r="P3">
-        <v>13.83121529206622</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.87126555586513</v>
+      </c>
+      <c r="R3">
+        <v>13.49399579505753</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.5799991717537</v>
+        <v>11.17791354558457</v>
       </c>
       <c r="C4">
-        <v>7.297327409485638</v>
+        <v>7.590188258998423</v>
       </c>
       <c r="D4">
-        <v>4.724337563742517</v>
+        <v>4.718902784476218</v>
       </c>
       <c r="E4">
-        <v>13.58852882153534</v>
+        <v>13.7077387576071</v>
       </c>
       <c r="F4">
-        <v>23.30763794083184</v>
+        <v>22.20607380370619</v>
       </c>
       <c r="G4">
-        <v>32.15696472051167</v>
+        <v>29.84661702454726</v>
       </c>
       <c r="H4">
-        <v>1.99724890708626</v>
+        <v>1.939859577042836</v>
       </c>
       <c r="I4">
-        <v>3.188215578159871</v>
+        <v>3.023375310305844</v>
       </c>
       <c r="J4">
-        <v>11.20979950021869</v>
+        <v>11.04089608387615</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>14.16738872356703</v>
       </c>
       <c r="M4">
-        <v>10.4397494076971</v>
+        <v>10.83000933875882</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.35224610869867</v>
+        <v>10.41553700093792</v>
       </c>
       <c r="P4">
-        <v>13.90310586347861</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>13.34526138644751</v>
+      </c>
+      <c r="R4">
+        <v>13.57515533536958</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.33149357217162</v>
+        <v>10.95341295948422</v>
       </c>
       <c r="C5">
-        <v>7.190802371906543</v>
+        <v>7.451133158568904</v>
       </c>
       <c r="D5">
-        <v>4.703917544613285</v>
+        <v>4.690888388156906</v>
       </c>
       <c r="E5">
-        <v>13.34154623070809</v>
+        <v>13.46478115053291</v>
       </c>
       <c r="F5">
-        <v>23.11680900862968</v>
+        <v>22.0475740475201</v>
       </c>
       <c r="G5">
-        <v>31.86217625200592</v>
+        <v>29.62118264817195</v>
       </c>
       <c r="H5">
-        <v>2.056763245773036</v>
+        <v>1.99643614760755</v>
       </c>
       <c r="I5">
-        <v>3.240809894133033</v>
+        <v>3.069787432435732</v>
       </c>
       <c r="J5">
-        <v>11.17816619783398</v>
+        <v>11.00923533556598</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>14.1697155467614</v>
       </c>
       <c r="M5">
-        <v>10.2454944661067</v>
+        <v>10.78699586378345</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.12871766719935</v>
+        <v>10.22690022195482</v>
       </c>
       <c r="P5">
-        <v>13.93032637437754</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.1242956770637</v>
+      </c>
+      <c r="R5">
+        <v>13.6065399058918</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.28117678401519</v>
+        <v>10.90763819343326</v>
       </c>
       <c r="C6">
-        <v>7.182471429285993</v>
+        <v>7.438050321563701</v>
       </c>
       <c r="D6">
-        <v>4.701659095509901</v>
+        <v>4.687551633125909</v>
       </c>
       <c r="E6">
-        <v>13.30019106206931</v>
+        <v>13.42411487076056</v>
       </c>
       <c r="F6">
-        <v>23.07097851504188</v>
+        <v>22.00790442955569</v>
       </c>
       <c r="G6">
-        <v>31.78771662109586</v>
+        <v>29.55974870265528</v>
       </c>
       <c r="H6">
-        <v>2.067012496393458</v>
+        <v>2.006168687406987</v>
       </c>
       <c r="I6">
-        <v>3.253353080286697</v>
+        <v>3.081925439113579</v>
       </c>
       <c r="J6">
-        <v>11.16831196953287</v>
+        <v>10.99960437852677</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14.16123328627482</v>
       </c>
       <c r="M6">
-        <v>10.21159235383647</v>
+        <v>10.77341400934853</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.09056652528324</v>
+        <v>10.19402053910931</v>
       </c>
       <c r="P6">
-        <v>13.93208856710253</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.08660961617796</v>
+      </c>
+      <c r="R6">
+        <v>13.60948310792465</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.55398869670264</v>
+        <v>11.14823058720683</v>
       </c>
       <c r="C7">
-        <v>7.321355285368712</v>
+        <v>7.607833714657872</v>
       </c>
       <c r="D7">
-        <v>4.72723309539661</v>
+        <v>4.724558438274319</v>
       </c>
       <c r="E7">
-        <v>13.5855244412999</v>
+        <v>13.70679233414034</v>
       </c>
       <c r="F7">
-        <v>23.26693017069261</v>
+        <v>22.14591965753875</v>
       </c>
       <c r="G7">
-        <v>32.08440661234845</v>
+        <v>29.8518617064845</v>
       </c>
       <c r="H7">
-        <v>1.99882916736615</v>
+        <v>1.94180236230882</v>
       </c>
       <c r="I7">
-        <v>3.198841529677063</v>
+        <v>3.036251202293818</v>
       </c>
       <c r="J7">
-        <v>11.19678600567648</v>
+        <v>10.98101606228583</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14.13376505480198</v>
       </c>
       <c r="M7">
-        <v>10.43373336014262</v>
+        <v>10.80270094267597</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.34747456494356</v>
+        <v>10.40382640571958</v>
       </c>
       <c r="P7">
-        <v>13.89595309119582</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>13.33774352213566</v>
+      </c>
+      <c r="R7">
+        <v>13.56643696448777</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.70241711294497</v>
+        <v>12.17301910489462</v>
       </c>
       <c r="C8">
-        <v>7.888888878966598</v>
+        <v>8.31778045957263</v>
       </c>
       <c r="D8">
-        <v>4.833596198935046</v>
+        <v>4.8756268271853</v>
       </c>
       <c r="E8">
-        <v>14.77813649906388</v>
+        <v>14.88512150749967</v>
       </c>
       <c r="F8">
-        <v>24.16132396729672</v>
+        <v>22.83219009171051</v>
       </c>
       <c r="G8">
-        <v>33.44010491830116</v>
+        <v>31.03710654722887</v>
       </c>
       <c r="H8">
-        <v>1.708173875537856</v>
+        <v>1.666599105416998</v>
       </c>
       <c r="I8">
-        <v>2.959354595403007</v>
+        <v>2.831959029363215</v>
       </c>
       <c r="J8">
-        <v>11.33840846588759</v>
+        <v>11.01207579808308</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>14.0524046545766</v>
       </c>
       <c r="M8">
-        <v>11.36368026319069</v>
+        <v>11.0030378555501</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.42842926403254</v>
+        <v>11.29469299895255</v>
       </c>
       <c r="P8">
-        <v>13.74540303114343</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.40038108423431</v>
+      </c>
+      <c r="R8">
+        <v>13.39068908545998</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.71483435218295</v>
+        <v>13.98573251328225</v>
       </c>
       <c r="C9">
-        <v>8.885186204732767</v>
+        <v>9.582458334373053</v>
       </c>
       <c r="D9">
-        <v>5.023740008960122</v>
+        <v>5.141640329407831</v>
       </c>
       <c r="E9">
-        <v>16.87707701111349</v>
+        <v>16.95449918722128</v>
       </c>
       <c r="F9">
-        <v>25.94025812610531</v>
+        <v>24.28884222762128</v>
       </c>
       <c r="G9">
-        <v>36.12191743701811</v>
+        <v>33.16284232086245</v>
       </c>
       <c r="H9">
-        <v>1.936784726435926</v>
+        <v>1.950455654774665</v>
       </c>
       <c r="I9">
-        <v>2.510848048759465</v>
+        <v>2.519753201378379</v>
       </c>
       <c r="J9">
-        <v>11.6517137971784</v>
+        <v>11.26039266202227</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.94452768785878</v>
       </c>
       <c r="M9">
-        <v>12.99919238979379</v>
+        <v>11.58823581336124</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.34914839631623</v>
+        <v>12.88055711706992</v>
       </c>
       <c r="P9">
-        <v>13.46893190513833</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>16.29742371518622</v>
+      </c>
+      <c r="R9">
+        <v>13.07213151491421</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.00533617611461</v>
+        <v>15.12974370696642</v>
       </c>
       <c r="C10">
-        <v>9.566105175132487</v>
+        <v>10.39222185085275</v>
       </c>
       <c r="D10">
-        <v>5.174579834734077</v>
+        <v>5.362120486946047</v>
       </c>
       <c r="E10">
-        <v>17.73402263827817</v>
+        <v>17.80144670840567</v>
       </c>
       <c r="F10">
-        <v>27.03661700033491</v>
+        <v>25.0649846857622</v>
       </c>
       <c r="G10">
-        <v>37.70719740125898</v>
+        <v>34.78725452556949</v>
       </c>
       <c r="H10">
-        <v>2.275619776264617</v>
+        <v>2.268533026802838</v>
       </c>
       <c r="I10">
-        <v>2.744624845401586</v>
+        <v>2.772889593937807</v>
       </c>
       <c r="J10">
-        <v>11.82807389272081</v>
+        <v>11.13176383954923</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.73470559124776</v>
       </c>
       <c r="M10">
-        <v>14.06746910048531</v>
+        <v>11.95256758906852</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.35003368403296</v>
+        <v>13.8897875125221</v>
       </c>
       <c r="P10">
-        <v>13.23322025518831</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>17.26962745107316</v>
+      </c>
+      <c r="R10">
+        <v>12.80115607009121</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.41093002631276</v>
+        <v>15.50807689950973</v>
       </c>
       <c r="C11">
-        <v>9.769978494459069</v>
+        <v>10.4979867913718</v>
       </c>
       <c r="D11">
-        <v>5.411767164129824</v>
+        <v>5.669099441776964</v>
       </c>
       <c r="E11">
-        <v>13.58306522514992</v>
+        <v>13.65422770018486</v>
       </c>
       <c r="F11">
-        <v>26.10290166583851</v>
+        <v>23.96041190153464</v>
       </c>
       <c r="G11">
-        <v>35.88090278137988</v>
+        <v>33.89351023251267</v>
       </c>
       <c r="H11">
-        <v>3.02149545305106</v>
+        <v>3.010541264584112</v>
       </c>
       <c r="I11">
-        <v>2.830527705033733</v>
+        <v>2.845254103113922</v>
       </c>
       <c r="J11">
-        <v>11.40773069547743</v>
+        <v>10.26025174988455</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>13.02226960103613</v>
       </c>
       <c r="M11">
-        <v>14.40503598751691</v>
+        <v>11.40439505510047</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.36130815270634</v>
+        <v>14.1690795934097</v>
       </c>
       <c r="P11">
-        <v>12.85983712858607</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.25454882698682</v>
+      </c>
+      <c r="R11">
+        <v>12.49052805011962</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.51918178422859</v>
+        <v>15.63616339964707</v>
       </c>
       <c r="C12">
-        <v>9.774047881502007</v>
+        <v>10.41257334704993</v>
       </c>
       <c r="D12">
-        <v>5.591677195295588</v>
+        <v>5.881839596095883</v>
       </c>
       <c r="E12">
-        <v>10.11380917325061</v>
+        <v>10.17331487404331</v>
       </c>
       <c r="F12">
-        <v>25.11868945911326</v>
+        <v>22.96665655992896</v>
       </c>
       <c r="G12">
-        <v>34.07195036503393</v>
+        <v>32.62469891873253</v>
       </c>
       <c r="H12">
-        <v>4.216015389701838</v>
+        <v>4.207712798996915</v>
       </c>
       <c r="I12">
-        <v>2.842040368467912</v>
+        <v>2.853391311027317</v>
       </c>
       <c r="J12">
-        <v>11.02951002134034</v>
+        <v>9.748947547485159</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.53837935279863</v>
       </c>
       <c r="M12">
-        <v>14.47817668350892</v>
+        <v>10.91874517029662</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.47015027790759</v>
+        <v>14.22100108192861</v>
       </c>
       <c r="P12">
-        <v>12.6330710673828</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.35545569717994</v>
+      </c>
+      <c r="R12">
+        <v>12.33473933095722</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.38293125225932</v>
+        <v>15.56969655826711</v>
       </c>
       <c r="C13">
-        <v>9.656102148969689</v>
+        <v>10.22003807134344</v>
       </c>
       <c r="D13">
-        <v>5.741853788865734</v>
+        <v>6.029062688187648</v>
       </c>
       <c r="E13">
-        <v>7.199395953690532</v>
+        <v>7.226462204883818</v>
       </c>
       <c r="F13">
-        <v>23.96276903061146</v>
+        <v>21.97636171898705</v>
       </c>
       <c r="G13">
-        <v>32.03524445924195</v>
+        <v>30.70431831084731</v>
       </c>
       <c r="H13">
-        <v>5.510176931521</v>
+        <v>5.505580022095458</v>
       </c>
       <c r="I13">
-        <v>2.801673647263805</v>
+        <v>2.820039218071718</v>
       </c>
       <c r="J13">
-        <v>10.63979976895659</v>
+        <v>9.5214610290779</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.17303292023772</v>
       </c>
       <c r="M13">
-        <v>14.35080064849944</v>
+        <v>10.44010088288839</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.48976005972453</v>
+        <v>14.11104771549073</v>
       </c>
       <c r="P13">
-        <v>12.49464607154693</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.38616139282827</v>
+      </c>
+      <c r="R13">
+        <v>12.27308877741571</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.17025353422148</v>
+        <v>15.42933730431597</v>
       </c>
       <c r="C14">
-        <v>9.523806750696268</v>
+        <v>10.04062132229276</v>
       </c>
       <c r="D14">
-        <v>5.836058325854538</v>
+        <v>6.10382346038373</v>
       </c>
       <c r="E14">
-        <v>5.946511960206675</v>
+        <v>5.940245698405181</v>
       </c>
       <c r="F14">
-        <v>23.05751119131879</v>
+        <v>21.26508813900126</v>
       </c>
       <c r="G14">
-        <v>30.47408689227576</v>
+        <v>29.0448923274422</v>
       </c>
       <c r="H14">
-        <v>6.448471991415321</v>
+        <v>6.446232433332353</v>
       </c>
       <c r="I14">
-        <v>2.751622377127187</v>
+        <v>2.779836384919102</v>
       </c>
       <c r="J14">
-        <v>10.35907397088739</v>
+        <v>9.468433107048488</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.96007319187494</v>
       </c>
       <c r="M14">
-        <v>14.16889569879833</v>
+        <v>10.10337294542227</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.04850088829617</v>
+        <v>13.95859714735425</v>
       </c>
       <c r="P14">
-        <v>12.44066552815792</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.961199896102475</v>
+      </c>
+      <c r="R14">
+        <v>12.26962999508756</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.05820512108537</v>
+        <v>15.3455329801613</v>
       </c>
       <c r="C15">
-        <v>9.47267808641007</v>
+        <v>9.980056447173849</v>
       </c>
       <c r="D15">
-        <v>5.852546520516519</v>
+        <v>6.108535785143525</v>
       </c>
       <c r="E15">
-        <v>5.809104337355411</v>
+        <v>5.797742043664949</v>
       </c>
       <c r="F15">
-        <v>22.78834728986147</v>
+        <v>21.07706817589968</v>
       </c>
       <c r="G15">
-        <v>30.02340541509678</v>
+        <v>28.49621995699606</v>
       </c>
       <c r="H15">
-        <v>6.675807235988797</v>
+        <v>6.676806287750512</v>
       </c>
       <c r="I15">
-        <v>2.729252666958462</v>
+        <v>2.762664606560713</v>
       </c>
       <c r="J15">
-        <v>10.28495260818536</v>
+        <v>9.498100825471543</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.92148635065505</v>
       </c>
       <c r="M15">
-        <v>14.07968309191868</v>
+        <v>10.01568267997949</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.674833626242222</v>
+        <v>13.88416338097169</v>
       </c>
       <c r="P15">
-        <v>12.44141743551746</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.595046723785936</v>
+      </c>
+      <c r="R15">
+        <v>12.28210017966991</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.5386412572262</v>
+        <v>14.91487533089512</v>
       </c>
       <c r="C16">
-        <v>9.22179726150517</v>
+        <v>9.740029218254106</v>
       </c>
       <c r="D16">
-        <v>5.760269929025908</v>
+        <v>5.957885592865341</v>
       </c>
       <c r="E16">
-        <v>5.740503470249035</v>
+        <v>5.761576682582874</v>
       </c>
       <c r="F16">
-        <v>22.4819161630208</v>
+        <v>21.04835229219998</v>
       </c>
       <c r="G16">
-        <v>29.6276684799224</v>
+        <v>27.49836492533431</v>
       </c>
       <c r="H16">
-        <v>6.461859598898223</v>
+        <v>6.460575806608321</v>
       </c>
       <c r="I16">
-        <v>2.61479684110405</v>
+        <v>2.670038479730861</v>
       </c>
       <c r="J16">
-        <v>10.27587454889447</v>
+        <v>9.899220766667716</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.09543093225497</v>
       </c>
       <c r="M16">
-        <v>13.65820096084219</v>
+        <v>10.02225805900765</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.519654533947069</v>
+        <v>13.52660516769614</v>
       </c>
       <c r="P16">
-        <v>12.56410202595787</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.46881318494564</v>
+      </c>
+      <c r="R16">
+        <v>12.40049963048423</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.24885296158592</v>
+        <v>14.64760452701868</v>
       </c>
       <c r="C17">
-        <v>9.100000225028447</v>
+        <v>9.643796273326467</v>
       </c>
       <c r="D17">
-        <v>5.637275515445324</v>
+        <v>5.807290601940769</v>
       </c>
       <c r="E17">
-        <v>6.154686207769862</v>
+        <v>6.204267863836969</v>
       </c>
       <c r="F17">
-        <v>22.74197025127991</v>
+        <v>21.38857439944827</v>
       </c>
       <c r="G17">
-        <v>30.17793453306335</v>
+        <v>27.73489358092705</v>
       </c>
       <c r="H17">
-        <v>5.710664572233403</v>
+        <v>5.70779714006618</v>
       </c>
       <c r="I17">
-        <v>2.553314621459679</v>
+        <v>2.61952913550071</v>
       </c>
       <c r="J17">
-        <v>10.41901589166324</v>
+        <v>10.19989537178542</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.34246178803855</v>
       </c>
       <c r="M17">
-        <v>13.42905672669748</v>
+        <v>10.1932731182878</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.19414724909426</v>
+        <v>13.32354351025586</v>
       </c>
       <c r="P17">
-        <v>12.68487385901664</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.15386240515587</v>
+      </c>
+      <c r="R17">
+        <v>12.49727430468216</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.14817585848472</v>
+        <v>14.52159798507954</v>
       </c>
       <c r="C18">
-        <v>9.062164865504888</v>
+        <v>9.659831840436622</v>
       </c>
       <c r="D18">
-        <v>5.47655478905026</v>
+        <v>5.633655656327102</v>
       </c>
       <c r="E18">
-        <v>8.036646503379396</v>
+        <v>8.100079043130535</v>
       </c>
       <c r="F18">
-        <v>23.54282904923696</v>
+        <v>22.1489994888292</v>
       </c>
       <c r="G18">
-        <v>31.65038254434355</v>
+        <v>28.95330226028243</v>
       </c>
       <c r="H18">
-        <v>4.422661043503521</v>
+        <v>4.427415748019406</v>
       </c>
       <c r="I18">
-        <v>2.528880740085138</v>
+        <v>2.597200840961823</v>
       </c>
       <c r="J18">
-        <v>10.71838801199731</v>
+        <v>10.53221832495111</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.71856373334047</v>
       </c>
       <c r="M18">
-        <v>13.34883804455087</v>
+        <v>10.55489667245748</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.68514622453601</v>
+        <v>13.2490519689338</v>
       </c>
       <c r="P18">
-        <v>12.83646317824626</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.64566934763968</v>
+      </c>
+      <c r="R18">
+        <v>12.60346489374849</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.17647860277809</v>
+        <v>14.49389491674079</v>
       </c>
       <c r="C19">
-        <v>9.138180171059886</v>
+        <v>9.814832169494633</v>
       </c>
       <c r="D19">
-        <v>5.316166734907727</v>
+        <v>5.467787482385829</v>
       </c>
       <c r="E19">
-        <v>11.46893056781706</v>
+        <v>11.53370738735396</v>
       </c>
       <c r="F19">
-        <v>24.64733762859382</v>
+        <v>23.1409773238065</v>
       </c>
       <c r="G19">
-        <v>33.63165839407642</v>
+        <v>30.69360281987671</v>
       </c>
       <c r="H19">
-        <v>3.066669067775747</v>
+        <v>3.07291095543129</v>
       </c>
       <c r="I19">
-        <v>2.54966247403654</v>
+        <v>2.615339030138842</v>
       </c>
       <c r="J19">
-        <v>11.10225149533274</v>
+        <v>10.88128892137417</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>13.15242374945616</v>
       </c>
       <c r="M19">
-        <v>13.39212862723327</v>
+        <v>11.01679981148691</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.72001787069045</v>
+        <v>13.28570020854225</v>
       </c>
       <c r="P19">
-        <v>13.01605577401824</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.67579474164657</v>
+      </c>
+      <c r="R19">
+        <v>12.7226048946359</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.62219932037359</v>
+        <v>14.80220151233843</v>
       </c>
       <c r="C20">
-        <v>9.454147981826072</v>
+        <v>10.27223081559724</v>
       </c>
       <c r="D20">
-        <v>5.146575144710156</v>
+        <v>5.308985252902172</v>
       </c>
       <c r="E20">
-        <v>17.48984678770543</v>
+        <v>17.55427585854174</v>
       </c>
       <c r="F20">
-        <v>26.63997433912396</v>
+        <v>24.82747080510712</v>
       </c>
       <c r="G20">
-        <v>37.09763978482494</v>
+        <v>33.9431238710801</v>
       </c>
       <c r="H20">
-        <v>2.18357072453141</v>
+        <v>2.183449396128498</v>
       </c>
       <c r="I20">
-        <v>2.678333195010405</v>
+        <v>2.72353864178153</v>
       </c>
       <c r="J20">
-        <v>11.74198244303676</v>
+        <v>11.28765653049438</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.75756840995382</v>
       </c>
       <c r="M20">
-        <v>13.78559971599592</v>
+        <v>11.8179016615988</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.07609129918574</v>
+        <v>13.64053145729729</v>
       </c>
       <c r="P20">
-        <v>13.27172511061229</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>17.01155544345834</v>
+      </c>
+      <c r="R20">
+        <v>12.86403657518034</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.59807930523032</v>
+        <v>15.5815827365674</v>
       </c>
       <c r="C21">
-        <v>9.968727836558223</v>
+        <v>10.78387931681527</v>
       </c>
       <c r="D21">
-        <v>5.230535226426555</v>
+        <v>5.489146516073444</v>
       </c>
       <c r="E21">
-        <v>18.94276144469728</v>
+        <v>19.03054186256825</v>
       </c>
       <c r="F21">
-        <v>27.74083228323688</v>
+        <v>25.29938090190489</v>
       </c>
       <c r="G21">
-        <v>38.77484312739405</v>
+        <v>36.82783184562587</v>
       </c>
       <c r="H21">
-        <v>2.472649173754432</v>
+        <v>2.449320173698578</v>
       </c>
       <c r="I21">
-        <v>2.908323345675991</v>
+        <v>2.909781672713058</v>
       </c>
       <c r="J21">
-        <v>11.97503312786523</v>
+        <v>10.47502238102317</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13.55957117615322</v>
       </c>
       <c r="M21">
-        <v>14.59248619389932</v>
+        <v>12.06487466072143</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.24585178471662</v>
+        <v>14.31543898717021</v>
       </c>
       <c r="P21">
-        <v>13.14628168020525</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>18.11664901505464</v>
+      </c>
+      <c r="R21">
+        <v>12.64663646911296</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.21989821159363</v>
+        <v>16.07850179428289</v>
       </c>
       <c r="C22">
-        <v>10.26435880753812</v>
+        <v>11.06419275797863</v>
       </c>
       <c r="D22">
-        <v>5.288662765470975</v>
+        <v>5.614013073898728</v>
       </c>
       <c r="E22">
-        <v>19.58647138811747</v>
+        <v>19.69159254869352</v>
       </c>
       <c r="F22">
-        <v>28.41010909303296</v>
+        <v>25.54642499431825</v>
       </c>
       <c r="G22">
-        <v>39.78032293405072</v>
+        <v>38.72075871758358</v>
       </c>
       <c r="H22">
-        <v>2.646902045502704</v>
+        <v>2.608736083784322</v>
       </c>
       <c r="I22">
-        <v>3.049646628784272</v>
+        <v>3.021828375973594</v>
       </c>
       <c r="J22">
-        <v>12.11490906575172</v>
+        <v>9.914730474157219</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>13.41206663402164</v>
       </c>
       <c r="M22">
-        <v>15.09468899945707</v>
+        <v>12.21043612215315</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.84224916949048</v>
+        <v>14.72972771511803</v>
       </c>
       <c r="P22">
-        <v>13.05751399238876</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>18.66969150888777</v>
+      </c>
+      <c r="R22">
+        <v>12.49729821096555</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.91001160946221</v>
+        <v>15.84394267995881</v>
       </c>
       <c r="C23">
-        <v>10.08426986835049</v>
+        <v>10.90651581099429</v>
       </c>
       <c r="D23">
-        <v>5.253921176890837</v>
+        <v>5.5362915144403</v>
       </c>
       <c r="E23">
-        <v>19.2450435507118</v>
+        <v>19.3365395148099</v>
       </c>
       <c r="F23">
-        <v>28.09135432279612</v>
+        <v>25.49980340428646</v>
       </c>
       <c r="G23">
-        <v>39.31202513658538</v>
+        <v>37.60560881490142</v>
       </c>
       <c r="H23">
-        <v>2.554968989574103</v>
+        <v>2.525413518321769</v>
       </c>
       <c r="I23">
-        <v>2.970578837366223</v>
+        <v>2.957906173869642</v>
       </c>
       <c r="J23">
-        <v>12.05374459990833</v>
+        <v>10.32414490065934</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>13.53109613327291</v>
       </c>
       <c r="M23">
-        <v>14.83164232749773</v>
+        <v>12.18032523000775</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.52769259891371</v>
+        <v>14.52478549249382</v>
       </c>
       <c r="P23">
-        <v>13.11310908781662</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>18.38377373611443</v>
+      </c>
+      <c r="R23">
+        <v>12.58904407555485</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.64878068548018</v>
+        <v>14.82251796764824</v>
       </c>
       <c r="C24">
-        <v>9.420359905796683</v>
+        <v>10.24447331897617</v>
       </c>
       <c r="D24">
-        <v>5.125322113433317</v>
+        <v>5.284560308002741</v>
       </c>
       <c r="E24">
-        <v>17.8997272618602</v>
+        <v>17.96405938893496</v>
       </c>
       <c r="F24">
-        <v>26.80932844609229</v>
+        <v>24.9855814310591</v>
       </c>
       <c r="G24">
-        <v>37.40396290305091</v>
+        <v>34.21145706397608</v>
       </c>
       <c r="H24">
-        <v>2.198646336259487</v>
+        <v>2.198279011299546</v>
       </c>
       <c r="I24">
-        <v>2.672381933841851</v>
+        <v>2.714967272671162</v>
       </c>
       <c r="J24">
-        <v>11.80403423638205</v>
+        <v>11.35033225282927</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.84265559292025</v>
       </c>
       <c r="M24">
-        <v>13.78832968944826</v>
+        <v>11.90461403518108</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.2868525821195</v>
+        <v>13.64306084932522</v>
       </c>
       <c r="P24">
-        <v>13.31185369793426</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>17.22210131103179</v>
+      </c>
+      <c r="R24">
+        <v>12.89380091982995</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.16549671659663</v>
+        <v>13.49611083545281</v>
       </c>
       <c r="C25">
-        <v>8.663626596376716</v>
+        <v>9.303994732549496</v>
       </c>
       <c r="D25">
-        <v>4.979564255454743</v>
+        <v>5.07479703583626</v>
       </c>
       <c r="E25">
-        <v>16.33537702430272</v>
+        <v>16.41787632430844</v>
       </c>
       <c r="F25">
-        <v>25.4014492093482</v>
+        <v>23.86843180799027</v>
       </c>
       <c r="G25">
-        <v>35.29559034890391</v>
+        <v>32.38952490027068</v>
       </c>
       <c r="H25">
-        <v>1.798650038675703</v>
+        <v>1.820195528367954</v>
       </c>
       <c r="I25">
-        <v>2.647292584542896</v>
+        <v>2.567648062651204</v>
       </c>
       <c r="J25">
-        <v>11.54371403686979</v>
+        <v>11.23865361674312</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.95228307151612</v>
       </c>
       <c r="M25">
-        <v>12.57219171958378</v>
+        <v>11.39288865448475</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.84882141033784</v>
+        <v>12.47404468838968</v>
       </c>
       <c r="P25">
-        <v>13.53017339784811</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>15.80700118002099</v>
+      </c>
+      <c r="R25">
+        <v>13.15176769929786</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
